--- a/sources/fact_extraction_viewpoint/economy-table30.xlsx
+++ b/sources/fact_extraction_viewpoint/economy-table30.xlsx
@@ -366,7 +366,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -385,6 +385,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -398,7 +404,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -406,6 +412,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -745,7 +752,7 @@
   <dimension ref="A1:K493"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -836,7 +843,7 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="4">
